--- a/public/templates/mcd表批导模板v1.0.xlsx
+++ b/public/templates/mcd表批导模板v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="24000" windowHeight="9840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="拆分部件" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="195">
   <si>
     <t>1</t>
   </si>
@@ -139,7 +139,9 @@
     <t>测试机构</t>
   </si>
   <si>
-    <t>测试结论</t>
+    <t>测试结论
+(true-通过)
+(false-不通过)</t>
   </si>
   <si>
     <t>报告编号</t>
@@ -148,7 +150,8 @@
     <t>报告日期</t>
   </si>
   <si>
-    <t>有效截止日期</t>
+    <t>有效截止日期
+(YYYY-MM-DD)</t>
   </si>
   <si>
     <t>10</t>
@@ -179,13 +182,18 @@
 ——标注黄色的为必填项</t>
   </si>
   <si>
+    <t>有效截止日期</t>
+  </si>
+  <si>
     <t>物质代码</t>
   </si>
   <si>
     <t>物质名称</t>
   </si>
   <si>
-    <t>是否限用物质</t>
+    <t>是否限用物质
+(true-是)
+(false-否)</t>
   </si>
   <si>
     <t>CAS.NO</t>
@@ -210,13 +218,18 @@
 ——标注黄色的为必填项</t>
   </si>
   <si>
+    <t>含量值类型
+(RANGE_VALUE-范围值)
+(DEFINITE_VALUE-精确值))</t>
+  </si>
+  <si>
+    <t>含量</t>
+  </si>
+  <si>
+    <t>基本单位代码</t>
+  </si>
+  <si>
     <t>含量值类型</t>
-  </si>
-  <si>
-    <t>含量</t>
-  </si>
-  <si>
-    <t>基本单位代码</t>
   </si>
   <si>
     <t>限用物质代码</t>
@@ -739,10 +752,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -787,45 +800,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,7 +815,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,16 +828,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,9 +859,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,8 +873,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,7 +898,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,7 +913,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,6 +981,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -980,72 +1131,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1064,85 +1149,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,21 +1184,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1197,21 +1195,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,26 +1217,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,16 +1233,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1286,103 +1299,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1391,32 +1410,26 @@
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1466,6 +1479,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1473,6 +1489,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1824,8 +1846,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1835,7 +1857,7 @@
     <col min="3" max="3" width="13.2166666666667" style="15" customWidth="1"/>
     <col min="4" max="4" width="14.6666666666667" style="15" customWidth="1"/>
     <col min="5" max="5" width="13" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.775" style="15" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="15" customWidth="1"/>
     <col min="7" max="7" width="11" style="15" customWidth="1"/>
     <col min="8" max="8" width="10.8833333333333" style="15" customWidth="1"/>
     <col min="9" max="9" width="16.3333333333333" style="15" customWidth="1"/>
@@ -1875,7 +1897,7 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -1887,20 +1909,25 @@
       <c r="E2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="23" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1913,7 +1940,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="$A3:$XFD8"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1922,7 +1949,7 @@
     <col min="2" max="2" width="12.8833333333333" style="15" customWidth="1"/>
     <col min="3" max="3" width="13.775" style="15" customWidth="1"/>
     <col min="4" max="4" width="10.3333333333333" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9" style="15"/>
+    <col min="5" max="5" width="19.25" style="15" customWidth="1"/>
     <col min="6" max="6" width="9.10833333333333" style="15" customWidth="1"/>
     <col min="7" max="7" width="9" style="15"/>
     <col min="8" max="8" width="14.4416666666667" style="15" customWidth="1"/>
@@ -2002,51 +2029,54 @@
       <c r="D2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="L2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="M2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="O2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="P2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="Q2" s="19" t="s">
         <v>35</v>
       </c>
+      <c r="R2" s="21" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576 L$1:L$1048576">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N995">
       <formula1>备注!$B$2:$B$26</formula1>
     </dataValidation>
@@ -2062,8 +2092,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="$A3:$XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2071,7 +2101,9 @@
     <col min="1" max="1" width="27.2166666666667" style="15" customWidth="1"/>
     <col min="2" max="2" width="12.6666666666667" style="15" customWidth="1"/>
     <col min="3" max="3" width="13.1083333333333" style="15" customWidth="1"/>
-    <col min="4" max="7" width="11.3333333333333" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11.3333333333333" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="15" customWidth="1"/>
+    <col min="6" max="7" width="11.3333333333333" style="15" customWidth="1"/>
     <col min="8" max="8" width="14.1083333333333" style="15" customWidth="1"/>
     <col min="9" max="9" width="9" style="15"/>
     <col min="10" max="10" width="9.775" style="15" customWidth="1"/>
@@ -2079,7 +2111,7 @@
     <col min="12" max="12" width="9" style="15"/>
     <col min="13" max="13" width="13" style="15" customWidth="1"/>
     <col min="14" max="14" width="12.8833333333333" style="15" customWidth="1"/>
-    <col min="15" max="15" width="13.6666666666667" style="15" customWidth="1"/>
+    <col min="15" max="15" width="24.625" style="15" customWidth="1"/>
     <col min="16" max="16" width="9" style="15"/>
     <col min="17" max="17" width="12.4416666666667" style="15" customWidth="1"/>
     <col min="18" max="16384" width="9" style="15"/>
@@ -2137,7 +2169,7 @@
     </row>
     <row r="2" s="14" customFormat="1" ht="43.5" customHeight="1" spans="1:17">
       <c r="A2" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>11</v>
@@ -2148,56 +2180,59 @@
       <c r="D2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="18" t="s">
+      <c r="K2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="18" t="s">
+      <c r="N2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>39</v>
       </c>
+      <c r="Q2" s="21" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J997">
       <formula1>备注!$D$2:$D$57</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M997">
       <formula1>备注!$B$2:$B$26</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O1043">
-      <formula1>备注!$A$2:$A$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576">
+      <formula1>"RANGE_VALUE,DEFINITE_VALUE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2226,603 +2261,603 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:5">
       <c r="B9" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="2:5">
       <c r="B14" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" ht="40.5" spans="2:5">
       <c r="B18" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" ht="27" spans="2:5">
       <c r="B22" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" ht="27" spans="2:5">
       <c r="B24" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="4:5">
       <c r="D27" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="D28" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="4:5">
       <c r="D29" s="10"/>
       <c r="E29" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="4:5">
       <c r="D30" s="10"/>
       <c r="E30" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="4:5">
       <c r="D31" s="10"/>
       <c r="E31" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" ht="27" spans="4:5">
       <c r="D32" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" s="10"/>
       <c r="E33" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="4:5">
       <c r="D34" s="10"/>
       <c r="E34" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="D35" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="D36" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="4:5">
       <c r="D37" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="D38" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" ht="26.25" spans="4:5">
       <c r="D40" s="10"/>
       <c r="E40" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="4:5">
       <c r="D41" s="10"/>
       <c r="E41" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" ht="27" spans="4:5">
       <c r="D42" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="4:5">
       <c r="D43" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="4:5">
       <c r="D44" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="4:5">
       <c r="D45" s="10"/>
       <c r="E45" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="4:5">
       <c r="D46" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" ht="27" spans="4:5">
       <c r="D47" s="10"/>
       <c r="E47" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" ht="27" spans="4:5">
       <c r="D48" s="10"/>
       <c r="E48" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="4:5">
       <c r="D49" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="4:5">
       <c r="D50" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="4:5">
       <c r="D51" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="4:5">
       <c r="D52" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="4:5">
       <c r="D53" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="4:5">
       <c r="D54" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="4:5">
       <c r="D55" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="4:5">
       <c r="D56" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="4:5">
       <c r="D57" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
